--- a/BasedeDatos.xlsx
+++ b/BasedeDatos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="267">
   <si>
     <t xml:space="preserve">EDAD</t>
   </si>
@@ -36,688 +36,700 @@
     <t xml:space="preserve">ESTADO CIVIL</t>
   </si>
   <si>
+    <t xml:space="preserve">COORDENADAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRABAJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUELDO (SEMANAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSUMO DE SUSTANCIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDICIÓN LIMITADA DE ACTIVIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNET EN CASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPUTADORA PROPIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.074241, -96.722923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0, T0, M0, C0, Met0, L0, P0, MD0, Al0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V, P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.330806, -96.261625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si, esporadicamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.692691, -97.258758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleneguita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1, T1, M1, Met0, L0, P0, MD0, Al0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado de Oaxaca, San Martín Mexicapam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si, temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1, T0, C0, M0, Met0, L0, P1, MD0, AL0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Catalina Quieri Yautepec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manzana 48-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle ayutla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalapa del Marques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo Mexico, Jacinto Amilpas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1, T1, M0, C0, Met0, L0, P1, MD0, Al0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacarandas, Ocotlan de Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1, T1, M0, C0, Met0, L0, P0, MD0, Al0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Ana Tlahuitoltepec Mixe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Lucía del Camino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2, T2, M2, C1, Met1, L2, P1, MD1, Al1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La chiguirrí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sto Domingo Tomaltepec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si, temporalmente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforma Agraria, xoxo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si, constantemente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2, T1, M2, C0, Met0, L0, P0, MD0, Al0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Juan Chapultepec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Pablo Etla  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2, T2, M1, C0, Met0,  P0, MD0, Al0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforma, Oaxaca de Juárez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1, T0, C0, M0, Met0, L0, P0, MD0, AL0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nazareno Etla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0, T0, C0, M0, Met0, L0, P3, MD0, Al0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1, T0, M0, C0, Met0, L0, P0, MD0, Al0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alamos, Montoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2, T1, M1, C0, Met0, L1, P0, MD0, Al0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guelaguetza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col. Monte Albán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reforma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Regiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A0, T1, M0, C0, Met0, L0, P0, MD0, Al0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volcanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGRESO MENSUAL HOGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITUACIÓN ACTUAL PARENTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERSONAS EN LA VIVIENDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVEL ESCOLAR PADRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVEL ESCOLAR MADRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No sabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAZONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCUELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROMEDIO (ÚLTIMO SEMESTRE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATERIA FAVORITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRECUENCIA JUGANDO VIDEOJUEGOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIEMPO DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTO DE TRANSPORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVIDAD EXTRAESCOLAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENTOS RELIGIOSOS ASISTIDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPIRACIÓN UNIVERSIDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USO DEL APOYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTRA BECA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desacuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBTIS 123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matutino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecatronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-3 veces a la semana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ing. en Nanotecnología</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2, Al0, Ves0, B0, Edu1, Nar0, Otro0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseno Grafico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al1, Ves1, B1, Edu2, Nar0, Otro1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEBO 111 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matematicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisico Matematico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, Al1, Ves0, B0, Edu2, Nar0, Otro0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBTIS 123 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al1, Ves1, B0, Edu0, Nar0, Otro2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunos alumnos no lo necesitan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBAO 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2, Al1, Ves1, B0, Edu3, Nar0, Otro 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CECYTE 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIC´s </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, Al1, Ves0, B0, Edu3, Nar0, Otro0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBTa 203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leoye e ingles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dep, Art,Aca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño Grafico / Veterinaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3, Al2, Ves2, B0, Edu2, Nar0, Otro2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBAO 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vespertino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quimica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ing. Gestion Empresarial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, Al1, Ves1, B0, Edu2, Nar0, Otro0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBAO 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matematicas y Fisica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dep, Aca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ing. Biomedica / Fisica Aplicada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S3, Al2, Ves0, B0, Edu2, Nar0, Otro0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art, Aca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al2, Ves1, B1, Edu*, Nar0, Otro0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBAO 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logica Computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dep, Art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terapia Fisica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, Al2, Ves1, B0, Edu2, Nar0, Otro0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informatica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S*, Al1, Ves0, B0, Edu*,  Nar0, Otro0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oportunidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matutino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Química </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al1, Ves2, B2, Edu2, Nar1, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al0, Ves0, B0, Edu3, Nar0, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ing. Química</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al0, Ves1, B0, Edu3, Nar0, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBTIS 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vespertino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lectura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, Al2, Ves1, B1, Edu3, Nar3, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepa No. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Literatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:30 horas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, Al0, Ves0, B0, Edu1, Nar0, Otros1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COBAO 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al0, Ves2, B1, Edu1, Nar0, Otro0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socioeconomia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contabilidad Publica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, Al2, Ves0, B0, Edu3, Nar0, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al0, Ves0, B0, Edu2, Nar0, Otros3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninguno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al0, Ves1, B0, Edu2, Nar0, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller de lectura y redacción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2, Al3, Ves1, B1, Edu2, Nar0, Otros3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pscologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derecho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, Al3, Ves1, B0, Edu2, Nar0, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criminologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1, Al2, Ves0, B0, Edu2, Nar0, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al1, Ves1, B0, Edu0, Nar0, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al1, Ves1, B0, Edu2, Nar0, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al1, Ves0, B0, Edu2, Nar0, Otros0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psicologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0, Al0, Ves0, B0, Edu2, Nar0, Otros0</t>
+  </si>
+  <si>
     <t xml:space="preserve">DIRECCION (COLONIA Y MUNICIPIO)</t>
   </si>
   <si>
-    <t xml:space="preserve">TRABAJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUELDO (SEMANAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSUMO DE SUSTANCIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDICIÓN LIMITADA DE ACTIVIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNET EN CASA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPUTADORA PROPIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP</t>
+    <t xml:space="preserve">TIPO DE TRABAJO</t>
   </si>
   <si>
     <t xml:space="preserve">José Lopez Alavez, Barrio de Xochimilco</t>
   </si>
   <si>
-    <t xml:space="preserve">Si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0, T0, M0, C0, Met0, L0, P0, MD0, Al0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V, P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
+    <t xml:space="preserve">Constante</t>
   </si>
   <si>
     <t xml:space="preserve">San Felipe Porvenir, San Juan Juquila Vijanos, Villa Alta</t>
   </si>
   <si>
-    <t xml:space="preserve">Si, esporadicamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">Esporadico</t>
   </si>
   <si>
     <t xml:space="preserve">Santiago Textitlán</t>
   </si>
   <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleneguita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-----</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1, T1, M1, Met0, L0, P0, MD0, Al0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninguna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado de Oaxaca, San Martín Mexicapam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si, temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1, T0, C0, M0, Met0, L0, P1, MD0, AL0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Catalina Quieri Yautepec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manzana 48-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle ayutla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jalapa del Marques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo Mexico, Jacinto Amilpas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1, T1, M0, C0, Met0, L0, P1, MD0, Al0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacarandas, Ocotlan de Morelos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1, T1, M0, C0, Met0, L0, P0, MD0, Al0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Ana Tlahuitoltepec Mixe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santa Lucía del Camino </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2, T2, M2, C1, Met1, L2, P1, MD1, Al1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La chiguirrí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sto Domingo Tomaltepec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si, temporalmente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reforma Agraria, xoxo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si, constantemente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2, T1, M2, C0, Met0, L0, P0, MD0, Al0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Juan Chapultepec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Pablo Etla  </t>
+    <t xml:space="preserve">Temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espordico</t>
   </si>
   <si>
     <t xml:space="preserve">--------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2, T2, M1, C0, Met0,  P0, MD0, Al0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reforma, Oaxaca de Juárez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1, T0, C0, M0, Met0, L0, P0, MD0, AL0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nazareno Etla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0, T0, C0, M0, Met0, L0, P3, MD0, Al0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1, T0, M0, C0, Met0, L0, P0, MD0, Al0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alamos, Montoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A2, T1, M1, C0, Met0, L1, P0, MD0, Al0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guelaguetza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col. Monte Albán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reforma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Regiones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A0, T1, M0, C0, Met0, L0, P0, MD0, Al0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volcanes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INGRESO MENSUAL HOGAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITUACIÓN ACTUAL PARENTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERSONAS EN LA VIVIENDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIVEL ESCOLAR PADRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIVEL ESCOLAR MADRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No sabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Div</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAZONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCUELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURNO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROMEDIO (ÚLTIMO SEMESTRE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATERIA FAVORITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRECUENCIA JUGANDO VIDEOJUEGOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIEMPO DE TRANSPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASTO DE TRANSPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACTIVIDAD EXTRAESCOLAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVENTOS RELIGIOSOS ASISTIDOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPIRACIÓN UNIVERSIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USO DEL APOYO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTRA BECA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desacuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBTIS 123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matutino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecatronica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-3 veces a la semana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">------------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ing. en Nanotecnología</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2, Al0, Ves0, B0, Edu1, Nar0, Otro0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIC 17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fisica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseno Grafico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al1, Ves1, B1, Edu2, Nar0, Otro1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acuerdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEBO 111 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matematicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fisico Matematico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1, Al1, Ves0, B0, Edu2, Nar0, Otro0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBTIS 123 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al1, Ves1, B0, Edu0, Nar0, Otro2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algunos alumnos no lo necesitan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COBAO 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2, Al1, Ves1, B0, Edu3, Nar0, Otro 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CECYTE 39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIC´s </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1, Al1, Ves0, B0, Edu3, Nar0, Otro0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBTa 203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leoye e ingles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dep, Art,Aca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño Grafico / Veterinaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3, Al2, Ves2, B0, Edu2, Nar0, Otro2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COBAO 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vespertino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quimica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ing. Gestion Empresarial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1, Al1, Ves1, B0, Edu2, Nar0, Otro0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COBAO 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matematicas y Fisica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dep, Aca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ing. Biomedica / Fisica Aplicada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3, Al2, Ves0, B0, Edu2, Nar0, Otro0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art, Aca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al2, Ves1, B1, Edu*, Nar0, Otro0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COBAO 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logica Computacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dep, Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terapia Fisica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1, Al2, Ves1, B0, Edu2, Nar0, Otro0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informatica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S*, Al1, Ves0, B0, Edu*,  Nar0, Otro0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oportunidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COBAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matutino </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Química </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al1, Ves2, B2, Edu2, Nar1, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inglés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al0, Ves0, B0, Edu3, Nar0, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ing. Química</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al0, Ves1, B0, Edu3, Nar0, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBTIS 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vespertino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lectura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1, Al2, Ves1, B1, Edu3, Nar3, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepa No. 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:30 horas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1, Al0, Ves0, B0, Edu1, Nar0, Otros1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COBAO 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al0, Ves2, B1, Edu1, Nar0, Otro0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socioeconomia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contabilidad Publica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1, Al2, Ves0, B0, Edu3, Nar0, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al0, Ves0, B0, Edu2, Nar0, Otros3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninguno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquitectura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al0, Ves1, B0, Edu2, Nar0, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taller de lectura y redacción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2, Al3, Ves1, B1, Edu2, Nar0, Otros3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pscologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derecho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1, Al3, Ves1, B0, Edu2, Nar0, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criminologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1, Al2, Ves0, B0, Edu2, Nar0, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al1, Ves1, B0, Edu0, Nar0, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electronica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al1, Ves1, B0, Edu2, Nar0, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al1, Ves0, B0, Edu2, Nar0, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psicologia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0, Al0, Ves0, B0, Edu2, Nar0, Otros0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO DE TRABAJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esporadico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temporal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espordico</t>
   </si>
   <si>
     <t xml:space="preserve">---</t>
@@ -1125,8 +1137,8 @@
   </sheetPr>
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1135,12 +1147,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="35.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="35.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="37.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="14" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="21" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="35" style="0" width="14.43"/>
@@ -1345,15 +1357,13 @@
       <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
@@ -1373,22 +1383,22 @@
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>200</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -1408,12 +1418,12 @@
         <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>300</v>
@@ -1423,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>21</v>
@@ -1443,7 +1453,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1456,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -1476,7 +1486,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1491,7 +1501,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>21</v>
@@ -1511,7 +1521,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1526,7 +1536,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>21</v>
@@ -1543,25 +1553,23 @@
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>13</v>
@@ -1581,22 +1589,22 @@
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="6" t="n">
         <v>300</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -1616,16 +1624,14 @@
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="5" t="s">
         <v>14</v>
@@ -1651,7 +1657,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1661,7 +1667,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>23</v>
@@ -1684,7 +1690,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1697,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>21</v>
@@ -1717,12 +1723,12 @@
         <v>17</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>500</v>
@@ -1749,25 +1755,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>700</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>13</v>
@@ -1787,22 +1793,22 @@
         <v>11</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>840</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>21</v>
@@ -1822,22 +1828,20 @@
         <v>17</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -1857,12 +1861,12 @@
         <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>500</v>
@@ -1872,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -1892,22 +1896,20 @@
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>13</v>
@@ -1927,22 +1929,20 @@
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -1962,22 +1962,22 @@
         <v>17</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>1000</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>13</v>
@@ -1997,22 +1997,20 @@
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
@@ -2032,22 +2030,20 @@
         <v>17</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>21</v>
@@ -2067,12 +2063,12 @@
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>500</v>
@@ -2082,7 +2078,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>21</v>
@@ -2102,12 +2098,12 @@
         <v>17</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H27" s="6" t="n">
         <v>800</v>
@@ -2117,7 +2113,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>13</v>
@@ -2137,22 +2133,20 @@
         <v>17</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>67</v>
-      </c>
+      <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -2172,7 +2166,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -2184,7 +2178,7 @@
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>23</v>
@@ -2207,19 +2201,19 @@
         <v>17</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>800</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>23</v>
@@ -2242,7 +2236,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2250,14 +2244,14 @@
         <v>21</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>13</v>
@@ -2454,20 +2448,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
@@ -2487,16 +2481,16 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="9" t="n">
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -2516,16 +2510,16 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,16 +2528,16 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>7</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,16 +2546,16 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,16 +2564,16 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,16 +2582,16 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,16 +2600,16 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="12" t="n">
         <v>4</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,7 +2618,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>3</v>
@@ -2633,7 +2627,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,7 +2636,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>4</v>
@@ -2651,7 +2645,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,16 +2654,16 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,16 +2672,16 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>3</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,16 +2690,16 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,16 +2708,16 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,16 +2726,16 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,34 +2744,34 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>5</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,34 +2780,34 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2822,25 +2816,25 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7" t="n">
         <v>7</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>10</v>
@@ -2849,7 +2843,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,16 +2852,16 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,34 +2870,34 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="7" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,16 +2906,16 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,7 +2924,7 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="7" t="n">
         <v>4</v>
@@ -2939,25 +2933,25 @@
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="7" t="n">
         <v>4</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,16 +2960,16 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="7" t="n">
         <v>6</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2984,7 +2978,7 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="7" t="n">
         <v>3</v>
@@ -2993,7 +2987,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,16 +2996,16 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="7" t="n">
         <v>5</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,7 +3014,7 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="7" t="n">
         <v>5</v>
@@ -3158,96 +3152,96 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="O1" s="14"/>
       <c r="P1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="R1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="F2" s="7" t="n">
         <v>7.7</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="J2" s="17" t="n">
         <v>30</v>
       </c>
       <c r="K2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="O2" s="18"/>
       <c r="P2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>21</v>
@@ -3255,46 +3249,46 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="7" t="n">
         <v>9.2</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="J3" s="17" t="n">
         <v>30</v>
       </c>
       <c r="K3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>21</v>
@@ -3302,31 +3296,31 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>8.4</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L4" s="20" t="n">
         <v>43650</v>
@@ -3335,11 +3329,11 @@
         <v>13</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>21</v>
@@ -3347,33 +3341,33 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>8.8</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="17" t="n">
         <v>400</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L5" s="20" t="n">
         <v>43525</v>
@@ -3382,11 +3376,11 @@
         <v>13</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O5" s="18"/>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3394,48 +3388,48 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="7" t="n">
         <v>8.3</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="J6" s="17" t="n">
         <v>40</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>21</v>
@@ -3443,33 +3437,33 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="n">
         <v>9.3</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="17" t="n">
         <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L7" s="20" t="n">
         <v>43525</v>
@@ -3478,11 +3472,11 @@
         <v>13</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>21</v>
@@ -3490,46 +3484,46 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="J8" s="17" t="n">
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>21</v>
@@ -3537,33 +3531,33 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>8.8</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="J9" s="17" t="n">
         <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L9" s="20" t="n">
         <v>43650</v>
@@ -3572,11 +3566,11 @@
         <v>13</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>21</v>
@@ -3584,33 +3578,33 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>9.3</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="J10" s="17" t="n">
         <v>40</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L10" s="20" t="n">
         <v>43525</v>
@@ -3619,11 +3613,11 @@
         <v>13</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>21</v>
@@ -3631,33 +3625,33 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="n">
         <v>8.4</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="L11" s="20" t="n">
         <v>43525</v>
@@ -3666,11 +3660,11 @@
         <v>13</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3678,33 +3672,33 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J12" s="17" t="n">
         <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L12" s="20" t="n">
         <v>43650</v>
@@ -3713,11 +3707,11 @@
         <v>13</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>21</v>
@@ -3725,90 +3719,90 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="n">
         <v>8.7</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="F14" s="7" t="n">
         <v>8.4</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="J14" s="17" t="n">
         <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O14" s="18"/>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -3816,31 +3810,31 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F15" s="7" t="n">
         <v>8.6</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L15" s="20" t="n">
         <v>43650</v>
@@ -3849,11 +3843,11 @@
         <v>13</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>21</v>
@@ -3861,33 +3855,33 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="n">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J16" s="17" t="n">
         <v>16</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L16" s="20" t="n">
         <v>43650</v>
@@ -3896,11 +3890,11 @@
         <v>13</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>21</v>
@@ -3908,46 +3902,46 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="F17" s="7" t="n">
         <v>7</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J17" s="17" t="n">
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="O17" s="18"/>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -3955,46 +3949,46 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="n">
         <v>7.8</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="J18" s="17" t="n">
         <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O18" s="18"/>
       <c r="P18" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>21</v>
@@ -4002,33 +3996,33 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="n">
         <v>8.7</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J19" s="17" t="n">
         <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L19" s="20" t="n">
         <v>43525</v>
@@ -4037,11 +4031,11 @@
         <v>13</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>21</v>
@@ -4049,33 +4043,33 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="n">
         <v>8.8</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J20" s="17" t="n">
         <v>20</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L20" s="20" t="n">
         <v>43650</v>
@@ -4084,11 +4078,11 @@
         <v>13</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O20" s="18"/>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>21</v>
@@ -4096,30 +4090,30 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F21" s="7" t="n">
         <v>8.1</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>21</v>
@@ -4131,11 +4125,11 @@
         <v>13</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O21" s="18"/>
       <c r="P21" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>21</v>
@@ -4143,46 +4137,46 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="n">
         <v>8</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J22" s="17" t="n">
         <v>9</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="18" t="s">
         <v>204</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="18" t="s">
-        <v>205</v>
       </c>
       <c r="O22" s="18"/>
       <c r="P22" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>21</v>
@@ -4190,46 +4184,46 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" s="7" t="n">
         <v>8.1</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J23" s="17" t="n">
         <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O23" s="18"/>
       <c r="P23" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>21</v>
@@ -4237,33 +4231,33 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" s="7" t="n">
         <v>8</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J24" s="17" t="n">
         <v>16</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L24" s="20" t="n">
         <v>43525</v>
@@ -4272,11 +4266,11 @@
         <v>13</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O24" s="18"/>
       <c r="P24" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>21</v>
@@ -4284,27 +4278,27 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="n">
         <v>7.8</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J25" s="17" t="n">
         <v>48</v>
@@ -4319,42 +4313,42 @@
         <v>13</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O25" s="18"/>
       <c r="P25" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="7" t="n">
         <v>8.1</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J26" s="17" t="n">
         <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L26" s="20" t="n">
         <v>43650</v>
@@ -4363,11 +4357,11 @@
         <v>13</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O26" s="18"/>
       <c r="P26" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>21</v>
@@ -4375,33 +4369,33 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="F27" s="7" t="n">
         <v>8</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>218</v>
-      </c>
       <c r="K27" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L27" s="20" t="n">
         <v>43525</v>
@@ -4410,11 +4404,11 @@
         <v>13</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>21</v>
@@ -4422,46 +4416,46 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="7" t="n">
         <v>8.8</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J28" s="17" t="n">
         <v>8</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>21</v>
@@ -4469,46 +4463,46 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="n">
         <v>8.2</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J29" s="17" t="n">
         <v>16</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O29" s="18"/>
       <c r="P29" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>21</v>
@@ -4516,46 +4510,46 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F30" s="7" t="n">
         <v>7.8</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J30" s="17" t="n">
         <v>16</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O30" s="18"/>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>21</v>
@@ -4563,46 +4557,46 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F31" s="7" t="n">
         <v>8.3</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J31" s="17" t="n">
         <v>16</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O31" s="18"/>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>21</v>
@@ -4808,7 +4802,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -4835,67 +4829,67 @@
         <v>9</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P1" s="21"/>
       <c r="Q1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="U1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="W1" s="14"/>
       <c r="X1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AH1" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="AH1" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="AI1" s="14"/>
       <c r="AJ1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK1" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4909,7 +4903,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -4917,7 +4911,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I2" s="22" t="n">
         <v>500</v>
@@ -4940,58 +4934,58 @@
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R2" s="9" t="n">
         <v>3</v>
       </c>
       <c r="S2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="U2" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
       <c r="X2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="Z2" s="7" t="n">
         <v>7.7</v>
       </c>
       <c r="AA2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="AD2" s="17" t="n">
         <v>30</v>
       </c>
       <c r="AE2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH2" s="18" t="s">
-        <v>115</v>
       </c>
       <c r="AI2" s="18"/>
       <c r="AJ2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>21</v>
@@ -5008,7 +5002,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -5016,7 +5010,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I3" s="22" t="n">
         <v>60</v>
@@ -5039,58 +5033,58 @@
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R3" s="7" t="n">
         <v>4</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
       <c r="X3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z3" s="7" t="n">
         <v>9.2</v>
       </c>
       <c r="AA3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="AD3" s="17" t="n">
         <v>30</v>
       </c>
       <c r="AE3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH3" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="AI3" s="18"/>
       <c r="AJ3" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK3" s="7" t="s">
         <v>21</v>
@@ -5107,7 +5101,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -5115,7 +5109,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I4" s="22" t="n">
         <v>20</v>
@@ -5138,43 +5132,43 @@
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R4" s="7" t="n">
         <v>7</v>
       </c>
       <c r="S4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="U4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z4" s="7" t="n">
         <v>8.4</v>
       </c>
       <c r="AA4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="AD4" s="19"/>
       <c r="AE4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF4" s="20" t="n">
         <v>43650</v>
@@ -5183,11 +5177,11 @@
         <v>13</v>
       </c>
       <c r="AH4" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI4" s="18"/>
       <c r="AJ4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK4" s="7" t="s">
         <v>21</v>
@@ -5212,14 +5206,14 @@
         <v>21</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>13</v>
@@ -5232,45 +5226,45 @@
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V5" s="16"/>
       <c r="W5" s="16"/>
       <c r="X5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z5" s="7" t="n">
         <v>8.8</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD5" s="17" t="n">
         <v>400</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF5" s="20" t="n">
         <v>43525</v>
@@ -5279,11 +5273,11 @@
         <v>13</v>
       </c>
       <c r="AH5" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI5" s="18"/>
       <c r="AJ5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AK5" s="7" t="s">
         <v>21</v>
@@ -5300,7 +5294,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -5308,17 +5302,17 @@
         <v>13</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I6" s="22" t="n">
         <v>200</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>13</v>
@@ -5331,60 +5325,60 @@
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R6" s="7" t="n">
         <v>3</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W6" s="18"/>
       <c r="X6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z6" s="7" t="n">
         <v>8.3</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC6" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="AD6" s="17" t="n">
         <v>40</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH6" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI6" s="18"/>
       <c r="AJ6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK6" s="7" t="s">
         <v>21</v>
@@ -5401,7 +5395,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5409,7 +5403,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I7" s="22" t="n">
         <v>300</v>
@@ -5419,7 +5413,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>21</v>
@@ -5432,45 +5426,45 @@
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="S7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="U7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V7" s="16"/>
       <c r="W7" s="16"/>
       <c r="X7" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z7" s="7" t="n">
         <v>9.3</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD7" s="17" t="n">
         <v>30</v>
       </c>
       <c r="AE7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF7" s="20" t="n">
         <v>43525</v>
@@ -5479,11 +5473,11 @@
         <v>13</v>
       </c>
       <c r="AH7" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK7" s="7" t="s">
         <v>21</v>
@@ -5500,7 +5494,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5508,7 +5502,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -5516,7 +5510,7 @@
         <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>13</v>
@@ -5529,58 +5523,58 @@
       </c>
       <c r="P8" s="23"/>
       <c r="Q8" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R8" s="12" t="n">
         <v>4</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
       <c r="X8" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z8" s="7" t="n">
         <v>6</v>
       </c>
       <c r="AA8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AB8" s="7" t="s">
+      <c r="AC8" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="AD8" s="17" t="n">
         <v>30</v>
       </c>
       <c r="AE8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH8" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="AF8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH8" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="AI8" s="18"/>
       <c r="AJ8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK8" s="7" t="s">
         <v>21</v>
@@ -5597,7 +5591,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -5612,7 +5606,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>21</v>
@@ -5625,7 +5619,7 @@
       </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R9" s="7" t="n">
         <v>3</v>
@@ -5634,36 +5628,36 @@
         <v>21</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V9" s="16"/>
       <c r="W9" s="16"/>
       <c r="X9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="Z9" s="7" t="n">
         <v>8.8</v>
       </c>
       <c r="AA9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AC9" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="AC9" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="AD9" s="17" t="n">
         <v>30</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF9" s="20" t="n">
         <v>43650</v>
@@ -5672,11 +5666,11 @@
         <v>13</v>
       </c>
       <c r="AH9" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AI9" s="18"/>
       <c r="AJ9" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AK9" s="7" t="s">
         <v>21</v>
@@ -5693,7 +5687,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -5701,7 +5695,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I10" s="22" t="n">
         <v>300</v>
@@ -5711,7 +5705,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>21</v>
@@ -5724,7 +5718,7 @@
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R10" s="7" t="n">
         <v>4</v>
@@ -5733,36 +5727,36 @@
         <v>21</v>
       </c>
       <c r="T10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
       <c r="X10" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z10" s="7" t="n">
         <v>9.3</v>
       </c>
       <c r="AA10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC10" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="AD10" s="17" t="n">
         <v>40</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF10" s="20" t="n">
         <v>43525</v>
@@ -5771,11 +5765,11 @@
         <v>13</v>
       </c>
       <c r="AH10" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AI10" s="18"/>
       <c r="AJ10" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK10" s="7" t="s">
         <v>21</v>
@@ -5789,10 +5783,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -5800,14 +5794,14 @@
         <v>21</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>13</v>
@@ -5820,45 +5814,45 @@
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R11" s="7" t="n">
         <v>4</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V11" s="16"/>
       <c r="W11" s="16"/>
       <c r="X11" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z11" s="7" t="n">
         <v>8.4</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD11" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE11" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD11" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="AF11" s="20" t="n">
         <v>43525</v>
@@ -5867,11 +5861,11 @@
         <v>13</v>
       </c>
       <c r="AH11" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI11" s="18"/>
       <c r="AJ11" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AK11" s="7" t="s">
         <v>21</v>
@@ -5888,7 +5882,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -5896,17 +5890,17 @@
         <v>13</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I12" s="22" t="n">
         <v>300</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>13</v>
@@ -5919,45 +5913,45 @@
       </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R12" s="7" t="n">
         <v>3</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
       <c r="X12" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z12" s="7" t="n">
         <v>7</v>
       </c>
       <c r="AA12" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AC12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD12" s="17" t="n">
         <v>30</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF12" s="20" t="n">
         <v>43650</v>
@@ -5966,11 +5960,11 @@
         <v>13</v>
       </c>
       <c r="AH12" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI12" s="18"/>
       <c r="AJ12" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK12" s="7" t="s">
         <v>21</v>
@@ -5987,7 +5981,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -5995,7 +5989,7 @@
         <v>21</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="5" t="s">
@@ -6015,61 +6009,61 @@
       </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R13" s="7" t="n">
         <v>8</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
       <c r="X13" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z13" s="7" t="n">
         <v>8.7</v>
       </c>
       <c r="AA13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="AD13" s="17" t="s">
         <v>67</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH13" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI13" s="18"/>
       <c r="AJ13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="AK13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,7 +6077,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -6093,7 +6087,7 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -6109,55 +6103,55 @@
       </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R14" s="7" t="n">
         <v>4</v>
       </c>
       <c r="S14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
       <c r="X14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="Z14" s="7" t="n">
         <v>8.4</v>
       </c>
       <c r="AA14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="AD14" s="17" t="n">
         <v>11</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH14" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI14" s="18"/>
       <c r="AJ14" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK14" s="7" t="s">
         <v>21</v>
@@ -6174,7 +6168,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -6187,7 +6181,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>21</v>
@@ -6200,43 +6194,43 @@
       </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R15" s="7" t="n">
         <v>6</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
       <c r="X15" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z15" s="7" t="n">
         <v>8.6</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AC15" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD15" s="19"/>
       <c r="AE15" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF15" s="20" t="n">
         <v>43650</v>
@@ -6245,11 +6239,11 @@
         <v>13</v>
       </c>
       <c r="AH15" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AI15" s="18"/>
       <c r="AJ15" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK15" s="7" t="s">
         <v>21</v>
@@ -6266,7 +6260,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -6274,7 +6268,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I16" s="22" t="n">
         <v>500</v>
@@ -6297,45 +6291,45 @@
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R16" s="7" t="n">
         <v>4</v>
       </c>
       <c r="S16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
       <c r="X16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z16" s="7" t="n">
         <v>10</v>
       </c>
       <c r="AA16" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD16" s="17" t="n">
         <v>16</v>
       </c>
       <c r="AE16" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF16" s="20" t="n">
         <v>43650</v>
@@ -6344,11 +6338,11 @@
         <v>13</v>
       </c>
       <c r="AH16" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AI16" s="18"/>
       <c r="AJ16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK16" s="7" t="s">
         <v>21</v>
@@ -6362,10 +6356,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -6373,17 +6367,17 @@
         <v>13</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I17" s="22" t="n">
         <v>700</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>13</v>
@@ -6392,62 +6386,62 @@
         <v>13</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R17" s="7" t="n">
         <v>5</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
       <c r="X17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="Z17" s="7" t="n">
         <v>7</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB17" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD17" s="17" t="n">
         <v>16</v>
       </c>
       <c r="AE17" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH17" s="18" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK17" s="7" t="s">
         <v>21</v>
@@ -6464,7 +6458,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -6472,17 +6466,17 @@
         <v>13</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I18" s="22" t="n">
         <v>840</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>21</v>
@@ -6495,58 +6489,58 @@
       </c>
       <c r="P18" s="22"/>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R18" s="7" t="n">
         <v>2</v>
       </c>
       <c r="S18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
       <c r="X18" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z18" s="7" t="n">
         <v>7.8</v>
       </c>
       <c r="AA18" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC18" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="AB18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC18" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="AD18" s="17" t="n">
         <v>20</v>
       </c>
       <c r="AE18" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG18" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH18" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI18" s="18"/>
       <c r="AJ18" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK18" s="7" t="s">
         <v>21</v>
@@ -6563,7 +6557,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -6571,14 +6565,14 @@
         <v>21</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>13</v>
@@ -6587,49 +6581,49 @@
         <v>13</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P19" s="22"/>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R19" s="7" t="n">
         <v>4</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
       <c r="X19" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z19" s="7" t="n">
         <v>8.7</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD19" s="17" t="n">
         <v>33</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF19" s="20" t="n">
         <v>43525</v>
@@ -6638,11 +6632,11 @@
         <v>13</v>
       </c>
       <c r="AH19" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI19" s="18"/>
       <c r="AJ19" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK19" s="7" t="s">
         <v>21</v>
@@ -6659,7 +6653,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -6667,7 +6661,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I20" s="22" t="n">
         <v>500</v>
@@ -6677,7 +6671,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>21</v>
@@ -6690,45 +6684,45 @@
       </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7" t="n">
         <v>7</v>
       </c>
       <c r="S20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V20" s="16"/>
       <c r="W20" s="16"/>
       <c r="X20" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z20" s="7" t="n">
         <v>8.8</v>
       </c>
       <c r="AA20" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AB20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AC20" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD20" s="17" t="n">
         <v>20</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF20" s="20" t="n">
         <v>43650</v>
@@ -6737,11 +6731,11 @@
         <v>13</v>
       </c>
       <c r="AH20" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI20" s="18"/>
       <c r="AJ20" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AK20" s="7" t="s">
         <v>21</v>
@@ -6758,7 +6752,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -6766,14 +6760,14 @@
         <v>21</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>13</v>
@@ -6782,11 +6776,11 @@
         <v>13</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R21" s="7" t="n">
         <v>10</v>
@@ -6795,33 +6789,33 @@
         <v>21</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V21" s="16"/>
       <c r="W21" s="16"/>
       <c r="X21" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z21" s="7" t="n">
         <v>8.1</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC21" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD21" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE21" s="7" t="s">
         <v>21</v>
@@ -6833,11 +6827,11 @@
         <v>13</v>
       </c>
       <c r="AH21" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI21" s="18"/>
       <c r="AJ21" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK21" s="7" t="s">
         <v>21</v>
@@ -6854,7 +6848,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -6862,14 +6856,14 @@
         <v>21</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>13</v>
@@ -6882,58 +6876,58 @@
       </c>
       <c r="P22" s="22"/>
       <c r="Q22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R22" s="7" t="n">
         <v>4</v>
       </c>
       <c r="S22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
       <c r="X22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z22" s="7" t="n">
         <v>8</v>
       </c>
       <c r="AA22" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD22" s="17" t="n">
         <v>9</v>
       </c>
       <c r="AE22" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH22" s="18" t="s">
         <v>204</v>
-      </c>
-      <c r="AG22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH22" s="18" t="s">
-        <v>205</v>
       </c>
       <c r="AI22" s="18"/>
       <c r="AJ22" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK22" s="7" t="s">
         <v>21</v>
@@ -6950,7 +6944,7 @@
         <v>17</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -6958,17 +6952,17 @@
         <v>13</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I23" s="22" t="n">
         <v>1000</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>13</v>
@@ -6981,58 +6975,58 @@
       </c>
       <c r="P23" s="22"/>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
       <c r="X23" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z23" s="7" t="n">
         <v>8.1</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD23" s="17" t="n">
         <v>50</v>
       </c>
       <c r="AE23" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF23" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH23" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI23" s="18"/>
       <c r="AJ23" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK23" s="7" t="s">
         <v>21</v>
@@ -7040,7 +7034,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>16</v>
@@ -7049,7 +7043,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -7057,14 +7051,14 @@
         <v>21</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>13</v>
@@ -7073,49 +7067,49 @@
         <v>13</v>
       </c>
       <c r="O24" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P24" s="22"/>
       <c r="Q24" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R24" s="7" t="n">
         <v>2</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
       <c r="X24" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z24" s="7" t="n">
         <v>8</v>
       </c>
       <c r="AA24" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC24" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD24" s="17" t="n">
         <v>16</v>
       </c>
       <c r="AE24" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF24" s="20" t="n">
         <v>43525</v>
@@ -7124,11 +7118,11 @@
         <v>13</v>
       </c>
       <c r="AH24" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI24" s="18"/>
       <c r="AJ24" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK24" s="7" t="s">
         <v>21</v>
@@ -7145,7 +7139,7 @@
         <v>17</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -7153,14 +7147,14 @@
         <v>21</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>21</v>
@@ -7173,39 +7167,39 @@
       </c>
       <c r="P25" s="22"/>
       <c r="Q25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R25" s="7" t="n">
         <v>6</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
       <c r="X25" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z25" s="7" t="n">
         <v>7.8</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="AC25" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD25" s="17" t="n">
         <v>48</v>
@@ -7220,11 +7214,11 @@
         <v>13</v>
       </c>
       <c r="AH25" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AI25" s="18"/>
       <c r="AJ25" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7238,7 +7232,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -7246,7 +7240,7 @@
         <v>13</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I26" s="22" t="n">
         <v>500</v>
@@ -7256,7 +7250,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>21</v>
@@ -7269,7 +7263,7 @@
       </c>
       <c r="P26" s="22"/>
       <c r="Q26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R26" s="7" t="n">
         <v>4</v>
@@ -7278,36 +7272,36 @@
         <v>21</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V26" s="16"/>
       <c r="W26" s="16"/>
       <c r="X26" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z26" s="7" t="n">
         <v>8.1</v>
       </c>
       <c r="AA26" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC26" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD26" s="17" t="n">
         <v>32</v>
       </c>
       <c r="AE26" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF26" s="20" t="n">
         <v>43650</v>
@@ -7316,11 +7310,11 @@
         <v>13</v>
       </c>
       <c r="AH26" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AI26" s="18"/>
       <c r="AJ26" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AK26" s="7" t="s">
         <v>21</v>
@@ -7337,7 +7331,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -7345,7 +7339,7 @@
         <v>13</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I27" s="22" t="n">
         <v>800</v>
@@ -7355,7 +7349,7 @@
         <v>14</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>13</v>
@@ -7364,49 +7358,49 @@
         <v>13</v>
       </c>
       <c r="O27" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P27" s="22"/>
       <c r="Q27" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R27" s="7" t="n">
         <v>4</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V27" s="16"/>
       <c r="W27" s="16"/>
       <c r="X27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Y27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="Z27" s="7" t="n">
         <v>8</v>
       </c>
       <c r="AA27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB27" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="AB27" s="7" t="s">
+      <c r="AC27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD27" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="AC27" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD27" s="17" t="s">
-        <v>218</v>
-      </c>
       <c r="AE27" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF27" s="20" t="n">
         <v>43525</v>
@@ -7415,11 +7409,11 @@
         <v>13</v>
       </c>
       <c r="AH27" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AI27" s="18"/>
       <c r="AJ27" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AK27" s="7" t="s">
         <v>21</v>
@@ -7436,7 +7430,7 @@
         <v>17</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -7448,10 +7442,10 @@
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>13</v>
@@ -7464,58 +7458,58 @@
       </c>
       <c r="P28" s="22"/>
       <c r="Q28" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R28" s="7" t="n">
         <v>6</v>
       </c>
       <c r="S28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V28" s="16"/>
       <c r="W28" s="16"/>
       <c r="X28" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z28" s="7" t="n">
         <v>8.8</v>
       </c>
       <c r="AA28" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB28" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC28" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AD28" s="17" t="n">
         <v>8</v>
       </c>
       <c r="AE28" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF28" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH28" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI28" s="18"/>
       <c r="AJ28" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK28" s="7" t="s">
         <v>21</v>
@@ -7532,7 +7526,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -7560,7 +7554,7 @@
       </c>
       <c r="P29" s="22"/>
       <c r="Q29" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R29" s="7" t="n">
         <v>3</v>
@@ -7569,49 +7563,49 @@
         <v>21</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z29" s="7" t="n">
         <v>8.2</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB29" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC29" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD29" s="17" t="n">
         <v>16</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF29" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG29" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH29" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AI29" s="18"/>
       <c r="AJ29" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK29" s="7" t="s">
         <v>21</v>
@@ -7628,7 +7622,7 @@
         <v>17</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -7636,14 +7630,14 @@
         <v>13</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I30" s="22" t="n">
         <v>800</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>23</v>
@@ -7659,58 +7653,58 @@
       </c>
       <c r="P30" s="22"/>
       <c r="Q30" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R30" s="7" t="n">
         <v>5</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
       <c r="X30" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y30" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z30" s="7" t="n">
         <v>7.8</v>
       </c>
       <c r="AA30" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB30" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AC30" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD30" s="17" t="n">
         <v>16</v>
       </c>
       <c r="AE30" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF30" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG30" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH30" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AI30" s="18"/>
       <c r="AJ30" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK30" s="7" t="s">
         <v>21</v>
@@ -7727,7 +7721,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -7735,14 +7729,14 @@
         <v>21</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>13</v>
@@ -7755,7 +7749,7 @@
       </c>
       <c r="P31" s="22"/>
       <c r="Q31" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R31" s="7" t="n">
         <v>5</v>
@@ -7767,46 +7761,46 @@
         <v>21</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
       <c r="X31" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y31" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z31" s="7" t="n">
         <v>8.3</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB31" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC31" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD31" s="17" t="n">
         <v>16</v>
       </c>
       <c r="AE31" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF31" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG31" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH31" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI31" s="18"/>
       <c r="AJ31" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK31" s="7" t="s">
         <v>21</v>
@@ -7823,7 +7817,7 @@
         <v>17</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -7831,14 +7825,14 @@
         <v>21</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>13</v>
@@ -7851,55 +7845,55 @@
       </c>
       <c r="P32" s="24"/>
       <c r="Q32" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R32" s="7" t="n">
         <v>6</v>
       </c>
       <c r="S32" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Y32" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z32" s="7" t="n">
         <v>9.1</v>
       </c>
       <c r="AA32" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AB32" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC32" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AE32" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF32" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG32" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH32" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AJ32" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AK32" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7910,10 +7904,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
@@ -7921,17 +7915,17 @@
         <v>13</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I33" s="24" t="n">
         <v>160</v>
       </c>
       <c r="J33" s="24"/>
       <c r="K33" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>13</v>
@@ -7944,55 +7938,55 @@
       </c>
       <c r="P33" s="24"/>
       <c r="Q33" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R33" s="7" t="n">
         <v>3</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="X33" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="X33" s="7" t="s">
+      <c r="Y33" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Y33" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="Z33" s="7" t="n">
         <v>9.7</v>
       </c>
       <c r="AA33" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AB33" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC33" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AD33" s="7" t="n">
         <v>16</v>
       </c>
       <c r="AE33" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF33" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG33" s="7" t="s">
         <v>13</v>
       </c>
       <c r="AH33" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AJ33" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AK33" s="7" t="s">
         <v>21</v>
@@ -8313,31 +8307,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="25" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9297,25 +9291,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
